--- a/public/files/Benefit_Data.xlsx
+++ b/public/files/Benefit_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\groemp\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E953B66-D4B4-4B0E-96DF-0718863189E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B99085-15E2-4A4A-B959-65B614A78FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{19B1010E-64E9-4785-B268-E64CD312150F}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>benefit_amount</t>
   </si>
   <si>
     <t>pan</t>
+  </si>
+  <si>
+    <t>month</t>
   </si>
 </sst>
 </file>
@@ -391,21 +394,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D3FF7A-F8CE-4E81-BC29-FA6A0E206FAA}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
